--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="2730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="3285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:P8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>FirstName</t>
   </si>
@@ -44,6 +45,12 @@
   </si>
   <si>
     <t>0101agggttt</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>currancy</t>
   </si>
 </sst>
 </file>
@@ -363,7 +370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -401,4 +408,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="3285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="3000"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
     <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P8"/>
+  <oleSize ref="A1:O8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>FirstName</t>
   </si>
@@ -38,12 +38,6 @@
     <t>Customer added successfully</t>
   </si>
   <si>
-    <t>bhautikaa</t>
-  </si>
-  <si>
-    <t>radaadiyaa</t>
-  </si>
-  <si>
     <t>0101agggttt</t>
   </si>
   <si>
@@ -51,6 +45,36 @@
   </si>
   <si>
     <t>currancy</t>
+  </si>
+  <si>
+    <t>Bhautik</t>
+  </si>
+  <si>
+    <t>Radadiya</t>
+  </si>
+  <si>
+    <t>Bhautik Radadiya</t>
+  </si>
+  <si>
+    <t>Rupee</t>
+  </si>
+  <si>
+    <t>Bhautik1</t>
+  </si>
+  <si>
+    <t>Radadiya1</t>
+  </si>
+  <si>
+    <t>Bhautik2</t>
+  </si>
+  <si>
+    <t>Bhautik3</t>
+  </si>
+  <si>
+    <t>Radadiya2</t>
+  </si>
+  <si>
+    <t>Radadiya3</t>
   </si>
 </sst>
 </file>
@@ -368,15 +392,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,17 +414,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -412,9 +478,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -422,10 +488,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -3,15 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bacancy\eclipse-workspace\ShareDataDrivenFramwork\src\test\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="3000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="3975" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
-    <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
+    <sheet name="test_suite" sheetId="3" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId2"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:O8"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>FirstName</t>
   </si>
@@ -75,6 +80,30 @@
   </si>
   <si>
     <t>Radadiya3</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>BankManagerLoginTest</t>
+  </si>
+  <si>
+    <t>AddCustomerTest</t>
+  </si>
+  <si>
+    <t>OpenAccountTest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -392,10 +421,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,6 +489,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -427,6 +506,9 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -441,6 +523,9 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -455,6 +540,9 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -468,6 +556,9 @@
       </c>
       <c r="D5" t="s">
         <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -476,12 +567,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="3975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="5070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
-    <sheet name="AddCustomerTest" sheetId="1" r:id="rId2"/>
-    <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
+    <sheet name="GitHubSync" sheetId="4" r:id="rId2"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId3"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>FirstName</t>
   </si>
@@ -104,6 +105,15 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>CreateAccount</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>Bhautik-Vase</t>
   </si>
 </sst>
 </file>
@@ -421,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +471,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -468,9 +486,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -567,7 +610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bacancy\eclipse-workspace\ShareDataDrivenFramwork\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\git\MainShare\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B17C1DA-2B89-496D-99CB-0C006B0D4D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="5070" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>FirstName</t>
   </si>
@@ -89,37 +90,25 @@
     <t>Runmode</t>
   </si>
   <si>
-    <t>BankManagerLoginTest</t>
-  </si>
-  <si>
-    <t>AddCustomerTest</t>
-  </si>
-  <si>
-    <t>OpenAccountTest</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
-    <t>CreateAccount</t>
-  </si>
-  <si>
     <t>AccountName</t>
   </si>
   <si>
     <t>Bhautik-Vase</t>
+  </si>
+  <si>
+    <t>GitHubSync</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,52 +419,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -484,42 +475,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -550,10 +516,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -567,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -584,10 +550,10 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -601,7 +567,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -611,16 +577,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -628,7 +594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\git\MainShare\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B17C1DA-2B89-496D-99CB-0C006B0D4D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84C2B90-DA6A-4C5A-A1FF-288E4189711A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
-    <sheet name="GitHubSync" sheetId="4" r:id="rId2"/>
-    <sheet name="AddCustomerTest" sheetId="1" r:id="rId3"/>
-    <sheet name="OpenAccountTest" sheetId="2" r:id="rId4"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId2"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>FirstName</t>
   </si>
@@ -94,12 +93,6 @@
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>AccountName</t>
-  </si>
-  <si>
-    <t>Bhautik-Vase</t>
   </si>
   <si>
     <t>GitHubSync</t>
@@ -422,7 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -438,7 +431,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -451,36 +444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\git\MainShare\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bacancy\eclipse-workspace\ShareDataDrivenFramwork\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84C2B90-DA6A-4C5A-A1FF-288E4189711A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId2"/>
-    <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
+    <sheet name="GitHubSync" sheetId="4" r:id="rId3"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>FirstName</t>
   </si>
@@ -96,12 +96,24 @@
   </si>
   <si>
     <t>GitHubSync</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>companyname</t>
+  </si>
+  <si>
+    <t>vase123</t>
+  </si>
+  <si>
+    <t>bhautik-vase45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,16 +424,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -429,7 +441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -444,16 +456,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -487,7 +499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -504,7 +516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -521,7 +533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -545,16 +557,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -562,7 +605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>FirstName</t>
   </si>
@@ -104,10 +104,16 @@
     <t>companyname</t>
   </si>
   <si>
-    <t>vase123</t>
-  </si>
-  <si>
-    <t>bhautik-vase45</t>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>FREE</t>
+  </si>
+  <si>
+    <t>bhautik-vasebh</t>
+  </si>
+  <si>
+    <t>bh</t>
   </si>
 </sst>
 </file>
@@ -558,32 +564,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>FirstName</t>
   </si>
@@ -110,10 +110,16 @@
     <t>FREE</t>
   </si>
   <si>
-    <t>bhautik-vasebh</t>
-  </si>
-  <si>
     <t>bh</t>
+  </si>
+  <si>
+    <t>orgURL</t>
+  </si>
+  <si>
+    <t>https://github.com/orgs/dineflesh</t>
+  </si>
+  <si>
+    <t>bhautik-vasebh1</t>
   </si>
 </sst>
 </file>
@@ -564,10 +570,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +582,7 @@
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -586,16 +592,22 @@
       <c r="C1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
